--- a/Textbooks, projects/Applied Math/labs/lab_4/var_1/lab_4_var_1.xlsx
+++ b/Textbooks, projects/Applied Math/labs/lab_4/var_1/lab_4_var_1.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21029"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FF86BAE0-CD3A-49A9-BBCF-4A06C198C23C}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{31201712-21DF-4564-AC65-66C443409DBB}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -416,8 +416,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J20"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F27" sqref="F27"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J22" sqref="J22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1176,8 +1176,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E8AE8C1E-F3D9-44FE-B932-5B2E785F5D9C}">
   <dimension ref="A1:E19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F25" sqref="F25"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H22" sqref="H22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1294,7 +1294,7 @@
       </c>
       <c r="C10" s="3"/>
       <c r="D10" s="3">
-        <f t="shared" ref="D9:D16" si="2">B10^2/(B10-1)</f>
+        <f t="shared" ref="D10:D16" si="2">B10^2/(B10-1)</f>
         <v>4.0090909090909088</v>
       </c>
       <c r="E10" s="3"/>
@@ -1311,7 +1311,7 @@
       <c r="C11" s="3"/>
       <c r="D11" s="3"/>
       <c r="E11" s="3">
-        <f t="shared" ref="E10:E17" si="3">B11^2/(B11-1)</f>
+        <f t="shared" ref="E11:E17" si="3">B11^2/(B11-1)</f>
         <v>4.069230769230769</v>
       </c>
     </row>
